--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>378.2793931710984</v>
+        <v>403.3147683524116</v>
       </c>
       <c r="R2">
-        <v>3404.514538539885</v>
+        <v>3629.832915171704</v>
       </c>
       <c r="S2">
-        <v>0.2552648735615299</v>
+        <v>0.2550665911134812</v>
       </c>
       <c r="T2">
-        <v>0.2552648735615299</v>
+        <v>0.2550665911134813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>679.0489949313113</v>
+        <v>590.5934189767131</v>
       </c>
       <c r="R3">
-        <v>6111.440954381802</v>
+        <v>5315.340770790419</v>
       </c>
       <c r="S3">
-        <v>0.4582257425659543</v>
+        <v>0.3735064072357951</v>
       </c>
       <c r="T3">
-        <v>0.4582257425659544</v>
+        <v>0.3735064072357951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>78.40384516195745</v>
+        <v>75.50398274252179</v>
       </c>
       <c r="R4">
-        <v>705.634606457617</v>
+        <v>679.5358446826961</v>
       </c>
       <c r="S4">
-        <v>0.0529073166112236</v>
+        <v>0.04775065285186448</v>
       </c>
       <c r="T4">
-        <v>0.05290731661122361</v>
+        <v>0.04775065285186449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H5">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>1.117532111401556</v>
+        <v>0.1111105519973333</v>
       </c>
       <c r="R5">
-        <v>10.057789002614</v>
+        <v>0.9999949679760001</v>
       </c>
       <c r="S5">
-        <v>0.0007541163972123629</v>
+        <v>7.026915937264502E-05</v>
       </c>
       <c r="T5">
-        <v>0.000754116397212363</v>
+        <v>7.026915937264503E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>67.55127842449666</v>
+        <v>82.80899642664622</v>
       </c>
       <c r="R6">
-        <v>607.9615058204699</v>
+        <v>745.280967839816</v>
       </c>
       <c r="S6">
-        <v>0.04558394894682911</v>
+        <v>0.0523705306363022</v>
       </c>
       <c r="T6">
-        <v>0.04558394894682911</v>
+        <v>0.05237053063630222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
         <v>121.2612385146024</v>
@@ -883,10 +883,10 @@
         <v>1091.351146631422</v>
       </c>
       <c r="S7">
-        <v>0.08182770533139753</v>
+        <v>0.0766887135536094</v>
       </c>
       <c r="T7">
-        <v>0.08182770533139756</v>
+        <v>0.07668871355360943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>14.00097406757489</v>
+        <v>15.50255415308711</v>
       </c>
       <c r="R8">
-        <v>126.008766608174</v>
+        <v>139.522987377784</v>
       </c>
       <c r="S8">
-        <v>0.009447929069404098</v>
+        <v>0.009804212371228995</v>
       </c>
       <c r="T8">
-        <v>0.009447929069404101</v>
+        <v>0.009804212371228999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.1995634025231111</v>
+        <v>0.02281333098933333</v>
       </c>
       <c r="R9">
-        <v>1.796070622708</v>
+        <v>0.205319978904</v>
       </c>
       <c r="S9">
-        <v>0.0001346664069790591</v>
+        <v>1.442773492070167E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001346664069790591</v>
+        <v>1.442773492070168E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N10">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q10">
-        <v>46.678319352675</v>
+        <v>108.3813707850818</v>
       </c>
       <c r="R10">
-        <v>420.104874174075</v>
+        <v>975.4323370657361</v>
       </c>
       <c r="S10">
-        <v>0.03149876917095484</v>
+        <v>0.06854315526130612</v>
       </c>
       <c r="T10">
-        <v>0.03149876917095484</v>
+        <v>0.06854315526130612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H11">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P11">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q11">
-        <v>83.792208652455</v>
+        <v>158.7081092686736</v>
       </c>
       <c r="R11">
-        <v>754.1298778720951</v>
+        <v>1428.372983418062</v>
       </c>
       <c r="S11">
-        <v>0.05654341191521308</v>
+        <v>0.100371073885037</v>
       </c>
       <c r="T11">
-        <v>0.0565434119152131</v>
+        <v>0.100371073885037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H12">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N12">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O12">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P12">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q12">
-        <v>9.674753076735</v>
+        <v>20.28992189598489</v>
       </c>
       <c r="R12">
-        <v>87.072777690615</v>
+        <v>182.609297063864</v>
       </c>
       <c r="S12">
-        <v>0.00652857296869659</v>
+        <v>0.01283186636856687</v>
       </c>
       <c r="T12">
-        <v>0.006528572968696592</v>
+        <v>0.01283186636856687</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H13">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N13">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O13">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P13">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q13">
-        <v>0.13789945137</v>
+        <v>0.02985835104266667</v>
       </c>
       <c r="R13">
-        <v>1.24109506233</v>
+        <v>0.268725159384</v>
       </c>
       <c r="S13">
-        <v>9.305525665323722E-05</v>
+        <v>1.888318607283925E-05</v>
       </c>
       <c r="T13">
-        <v>9.305525665323725E-05</v>
+        <v>1.888318607283925E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H14">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I14">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J14">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N14">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q14">
-        <v>0.5867305546216666</v>
+        <v>1.766883169333778</v>
       </c>
       <c r="R14">
-        <v>5.280574991594999</v>
+        <v>15.901948524004</v>
       </c>
       <c r="S14">
-        <v>0.0003959287858232427</v>
+        <v>0.001117422178064052</v>
       </c>
       <c r="T14">
-        <v>0.0003959287858232427</v>
+        <v>0.001117422178064053</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H15">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I15">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J15">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>38.717137</v>
       </c>
       <c r="O15">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P15">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q15">
-        <v>1.053239485427444</v>
+        <v>2.587332906682555</v>
       </c>
       <c r="R15">
-        <v>9.479155368847</v>
+        <v>23.285996160143</v>
       </c>
       <c r="S15">
-        <v>0.0007107314036428159</v>
+        <v>0.001636295609206665</v>
       </c>
       <c r="T15">
-        <v>0.000710731403642816</v>
+        <v>0.001636295609206665</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H16">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I16">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J16">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N16">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O16">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P16">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q16">
-        <v>0.1216083465998889</v>
+        <v>0.3307756789328888</v>
       </c>
       <c r="R16">
-        <v>1.094475119399</v>
+        <v>2.976981110396</v>
       </c>
       <c r="S16">
-        <v>8.206193564661524E-05</v>
+        <v>0.000209191012749967</v>
       </c>
       <c r="T16">
-        <v>8.206193564661524E-05</v>
+        <v>0.000209191012749967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H17">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I17">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J17">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N17">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O17">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P17">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q17">
-        <v>0.001733349073111111</v>
+        <v>0.0004867646306666666</v>
       </c>
       <c r="R17">
-        <v>0.015600141658</v>
+        <v>0.004380881676</v>
       </c>
       <c r="S17">
-        <v>1.169672839634628E-06</v>
+        <v>3.078424217539987E-07</v>
       </c>
       <c r="T17">
-        <v>1.169672839634628E-06</v>
+        <v>3.078424217539987E-07</v>
       </c>
     </row>
   </sheetData>
